--- a/test_data/xxxc.xlsx
+++ b/test_data/xxxc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11980" windowWidth="28000"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11700" windowWidth="28000"/>
   </bookViews>
   <sheets>
     <sheet name="112" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,13 +45,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -65,24 +58,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -104,29 +81,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -137,28 +91,60 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -170,6 +156,20 @@
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,13 +180,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,163 +312,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,32 +377,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,6 +405,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,32 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,7 +452,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,124 +476,124 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="13" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="10" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="19" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="31" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="16" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -602,39 +602,42 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
       <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="41">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -989,10 +992,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="4" width="55.25"/>
-    <col customWidth="1" max="4" min="4" style="4" width="59.125"/>
-    <col customWidth="1" max="6" min="6" style="4" width="63.875"/>
-    <col customWidth="1" max="7" min="7" style="4" width="52.625"/>
+    <col customWidth="1" max="3" min="3" style="2" width="55.25"/>
+    <col customWidth="1" max="4" min="4" style="2" width="59.125"/>
+    <col customWidth="1" max="6" min="6" style="2" width="63.875"/>
+    <col customWidth="1" max="7" min="7" style="2" width="52.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1086,7 +1089,7 @@
           <t>正常注册</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>http://127.0.0.1:8000/api/reg</t>
         </is>
@@ -1135,20 +1138,20 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.15384615384615"/>
-    <col customWidth="1" max="2" min="2" style="4" width="10.3076923076923"/>
-    <col customWidth="1" max="3" min="3" style="4" width="43.9230769230769"/>
-    <col customWidth="1" max="4" min="4" style="4" width="13.3076923076923"/>
-    <col customWidth="1" max="5" min="5" style="4" width="61.3846153846154"/>
-    <col customWidth="1" max="6" min="6" style="4" width="8.30769230769231"/>
-    <col customWidth="1" max="7" min="7" style="4" width="40.5384615384615"/>
-    <col customWidth="1" max="8" min="8" style="4" width="6.61538461538461"/>
-    <col customWidth="1" max="9" min="9" style="4" width="11"/>
+    <col customWidth="1" max="1" min="1" style="2" width="8.15384615384615"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.3076923076923"/>
+    <col customWidth="1" max="3" min="3" style="2" width="43.9230769230769"/>
+    <col customWidth="1" max="4" min="4" style="2" width="13.3076923076923"/>
+    <col customWidth="1" max="5" min="5" style="2" width="61.3846153846154"/>
+    <col customWidth="1" max="6" min="6" style="2" width="8.30769230769231"/>
+    <col customWidth="1" max="7" min="7" style="2" width="27.1538461538462"/>
+    <col customWidth="1" max="8" min="8" style="2" width="6.61538461538461"/>
+    <col customWidth="1" max="9" min="9" style="2" width="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1207,12 +1210,12 @@
           <t>掘金登陆</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>https://juejin.im/auth/type/phoneNumber</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>{"Origin": "https://juejin.im","Referer": "https://juejin.im/post/5cc11f6be51d45401f566d14","Sec-Fetch-Mode": "cors","User-Agent": "Mozilla/5.0 (Macintosh; Intel Mac OS X 10_14_5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.90 Safari/537.36"}</t>
         </is>
@@ -1229,49 +1232,57 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{'user': {'role': 'guest', 'username': 'yuanman99', 'selfDescription': '', 'email': '', 'mobilePhoneNumber': '17671105406', 'jobTitle': '', 'company': '', 'avatarHd': '', 'avatarLarge': '', 'blogAddress': '', 'deviceType': 'web', 'editorType': 'markdown', 'juejinPower': 0, 'level': 0, 'rankIndex': 0, 'roles': None, 'allowNotification': True, 'emailVerified': False, 'mobilePhoneVerified': True, 'isAuthor': False, 'isUnitedAuthor': False, 'blacklist': False, 'followeesCount': 0, 'followersCount': 0, 'postedPostsCount': 0, 'postedEntriesCount': 0, 'collectedEntriesCount': 0, 'viewedEntriesCount': 2, 'totalViewsCount': 0, 'subscribedTagsCount': 0, 'totalCollectionsCount': 0, 'totalHotIndex': 0, 'totalCommentsCount': 0, 'collectionSetCount': 0, 'latestLoginedInAt': '2019-10-08T10:06:04.297Z', 'createdAt': '2019-10-08T07:47:54.243Z', 'updatedAt': '2019-10-08T10:06:04.297Z', 'useLeancloudPwd': False, 'community': None, 'objectId': '5d9c3f2af265da5bb55837f9', 'uid': '5d9c3f2af265da5bb55837f9'}, 'token': 'eyJhY2Nlc3NfdG9rZW4iOiJDdGdTOUo3cTBXczFKTFRPIiwicmVmcmVzaF90b2tlbiI6Ing1OEJzaW1rU3ZpekxBdHoiLCJ0b2tlbl90eXBlIjoibWFjIiwiZXhwaXJlX2luIjoyNTkyMDAwfQ==', 'clientId': 1570529116901, 'userId': '5d9c3f2af265da5bb55837f9'}</t>
+          <t>5d9c3f2af265da5bb55837f9</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>{'user': {'role': 'guest', 'username': 'yuanman99', 'selfDescription': '', 'email': '', 'mobilePhoneNumber': '17671105406', 'jobTitle': '', 'company': '', 'avatarHd': '', 'avatarLarge': '', 'blogAddress': '', 'deviceType': 'web', 'editorType': 'markdown', 'juejinPower': 0, 'level': 0, 'rankIndex': 0, 'roles': None, 'allowNotification': True, 'emailVerified': False, 'mobilePhoneVerified': True, 'isAuthor': False, 'isUnitedAuthor': False, 'blacklist': False, 'followeesCount': 0, 'followersCount': 0, 'postedPostsCount': 0, 'postedEntriesCount': 0, 'collectedEntriesCount': 0, 'viewedEntriesCount': 7, 'totalViewsCount': 0, 'subscribedTagsCount': 0, 'totalCollectionsCount': 0, 'totalHotIndex': 0, 'totalCommentsCount': 0, 'collectionSetCount': 0, 'latestLoginedInAt': '2019-10-09T07:37:01.424Z', 'createdAt': '2019-10-08T07:47:54.243Z', 'updatedAt': '2019-10-09T07:37:01.424Z', 'useLeancloudPwd': False, 'community': None, 'objectId': '5d9c3f2af265da5bb55837f9', 'uid': '5d9c3f2af265da5bb55837f9'}, 'token': 'eyJhY2Nlc3NfdG9rZW4iOiJPU3hrMHlJekpUNHpJemhwIiwicmVmcmVzaF90b2tlbiI6InlGdnZKU29QNUJIOEs1Y3QiLCJ0b2tlbl90eXBlIjoibWFjIiwiZXhwaXJlX2luIjoyNTkyMDAwfQ==', 'clientId': 1570606621409, 'userId': '5d9c3f2af265da5bb55837f9'}</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="404" r="3" s="1">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>掘金文章</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>https://post-storage-api-ms.juejin.im/v1/getDetailData?uid='${uid}'&amp;device_id=1570520905829&amp;token='${token}'&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>文章</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>https://post-storage-api-ms.juejin.im/v1/getDetailData?uid=5d9c3f2af265da5bb55837f9&amp;device_id=1570520905829&amp;token=${token}&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>{"Origin": "https://juejin.im","Referer": "https://juejin.im/post/5cc11f6be51d45401f566d14","Sec-Fetch-Mode": "cors","User-Agent": "Mozilla/5.0 (Macintosh; Intel Mac OS X 10_14_5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.90 Safari/537.36"}</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>{"sss":"ccc"}</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>{"m": "ok"}</t>
-        </is>
-      </c>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://juejin.im/auth/type/phoneNumber" ref="C2" r:id="rId1"/>
-    <hyperlink display="https://post-storage-api-ms.juejin.im/v1/getDetailData?uid='${uid}'&amp;device_id=1570520905829&amp;token='${token}'&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14" ref="C3" tooltip="https://post-storage-api-ms.juejin.im/v1/getDetailData?uid='${uid}'&amp;device_id=1570520905829&amp;token='${token}'&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14" r:id="rId2"/>
+    <hyperlink display="https://post-storage-api-ms.juejin.im/v1/getDetailData?uid=5d9c3f2af265da5bb55837f9&amp;device_id=1570520905829&amp;token=${token}&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14" ref="C3" tooltip="https://post-storage-api-ms.juejin.im/v1/getDetailData?uid=5d9c3f2af265da5bb55837f9&amp;device_id=1570520905829&amp;token=${token}&amp;src=web&amp;type=entry&amp;postId=5cc11f6be51d45401f566d14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test_data/xxxc.xlsx
+++ b/test_data/xxxc.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'user': {'role': 'guest', 'username': 'yuanman99', 'selfDescription': '', 'email': '', 'mobilePhoneNumber': '17671105406', 'jobTitle': '', 'company': '', 'avatarHd': '', 'avatarLarge': '', 'blogAddress': '', 'deviceType': 'web', 'editorType': 'markdown', 'juejinPower': 0, 'level': 0, 'rankIndex': 0, 'roles': None, 'allowNotification': True, 'emailVerified': False, 'mobilePhoneVerified': True, 'isAuthor': False, 'isUnitedAuthor': False, 'blacklist': False, 'followeesCount': 0, 'followersCount': 0, 'postedPostsCount': 0, 'postedEntriesCount': 0, 'collectedEntriesCount': 0, 'viewedEntriesCount': 7, 'totalViewsCount': 0, 'subscribedTagsCount': 0, 'totalCollectionsCount': 0, 'totalHotIndex': 0, 'totalCommentsCount': 0, 'collectionSetCount': 0, 'latestLoginedInAt': '2019-10-09T07:37:01.424Z', 'createdAt': '2019-10-08T07:47:54.243Z', 'updatedAt': '2019-10-09T07:37:01.424Z', 'useLeancloudPwd': False, 'community': None, 'objectId': '5d9c3f2af265da5bb55837f9', 'uid': '5d9c3f2af265da5bb55837f9'}, 'token': 'eyJhY2Nlc3NfdG9rZW4iOiJPU3hrMHlJekpUNHpJemhwIiwicmVmcmVzaF90b2tlbiI6InlGdnZKU29QNUJIOEs1Y3QiLCJ0b2tlbl90eXBlIjoibWFjIiwiZXhwaXJlX2luIjoyNTkyMDAwfQ==', 'clientId': 1570606621409, 'userId': '5d9c3f2af265da5bb55837f9'}</t>
+          <t>{'user': {'role': 'guest', 'username': 'yuanman99', 'selfDescription': '', 'email': '', 'mobilePhoneNumber': '17671105406', 'jobTitle': '', 'company': '', 'avatarHd': '', 'avatarLarge': '', 'blogAddress': '', 'deviceType': 'web', 'editorType': 'markdown', 'juejinPower': 0, 'level': 0, 'rankIndex': 0, 'roles': None, 'allowNotification': True, 'emailVerified': False, 'mobilePhoneVerified': True, 'isAuthor': False, 'isUnitedAuthor': False, 'blacklist': False, 'followeesCount': 15, 'followersCount': 0, 'postedPostsCount': 0, 'postedEntriesCount': 0, 'collectedEntriesCount': 0, 'viewedEntriesCount': 7, 'totalViewsCount': 0, 'subscribedTagsCount': 2, 'totalCollectionsCount': 0, 'totalHotIndex': 0, 'totalCommentsCount': 0, 'collectionSetCount': 0, 'latestLoginedInAt': '2019-10-10T13:33:11.072Z', 'createdAt': '2019-10-08T07:47:54.243Z', 'updatedAt': '2019-10-10T13:33:11.072Z', 'useLeancloudPwd': False, 'community': None, 'objectId': '5d9c3f2af265da5bb55837f9', 'uid': '5d9c3f2af265da5bb55837f9'}, 'token': 'eyJhY2Nlc3NfdG9rZW4iOiJVTjNENEN1TkxxZ3NKR0RiIiwicmVmcmVzaF90b2tlbiI6ImNoMVF0dEFPaGVCNTMyR08iLCJ0b2tlbl90eXBlIjoibWFjIiwiZXhwaXJlX2luIjoyNTkyMDAwfQ==', 'clientId': 1570714391056, 'userId': '5d9c3f2af265da5bb55837f9'}</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
